--- a/resource_api/raporlar/dosyalar/Stok_listesi.xlsx
+++ b/resource_api/raporlar/dosyalar/Stok_listesi.xlsx
@@ -1,12 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sayfa1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -67,22 +67,90 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -387,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -395,10 +463,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="23.6640625" defaultRowHeight="13.8"/>
   <cols>
-    <col customWidth="1" max="4" min="1" style="1" width="23.6640625"/>
-    <col customWidth="1" max="5" min="5" style="2" width="13.5546875"/>
-    <col customWidth="1" max="6" min="6" style="1" width="17.44140625"/>
-    <col customWidth="1" max="16384" min="7" style="1" width="23.6640625"/>
+    <col width="23.6640625" customWidth="1" style="1" min="1" max="4"/>
+    <col width="13.5546875" customWidth="1" style="2" min="5" max="5"/>
+    <col width="17.44140625" customWidth="1" style="1" min="6" max="6"/>
+    <col width="23.6640625" customWidth="1" style="1" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -431,260 +499,260 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10,0xFREEx1,2</t>
+          <t>10,0x10,0x1,0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Bluestone</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>252</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>15,0xFREEx3,0</t>
+          <t>10,0xFREEx2,0</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>86.7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>15,0x30,0x2,0</t>
+          <t>10,0x20,0x1,0</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brushed</t>
+          <t>Tumbled</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>57.96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>15,25x61,0x1,2</t>
+          <t>10,0xFREEx2,0</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E5" t="n">
-        <v>503.25</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>15,25x61,0x1,2</t>
+          <t>10,0xFREEx2,2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>42.79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>15,25x15,25x1,0</t>
+          <t>10,0x20,0x1,0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
-        <v>50.3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>15,25x15,25x1,0</t>
+          <t>10,0xFREEx1,2</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Desert Silver</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8" t="n">
-        <v>50.3</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>15,25x40,6x1,2</t>
+          <t>10,0xFREEx1,2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>44.58</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>11,5x23,5x2,0</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Bush Hammered</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Toros Black</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>119.07</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>12,0x120,0x1,2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>266.15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15,25x30,5x3,0</t>
+          <t>15,0xFREEx2,0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Classic Rustic</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>272.09</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>15,0xFREEx2,0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -694,526 +762,526 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>25.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>15,0x120,0x2,0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Silver Panel</t>
+          <t>Blanco Ivory</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>255.42</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>15,0x165,0x2,0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Philadelphia Panel</t>
+          <t>Blanco Ivory</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>64.8</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>15,0x40,0x1,0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Silver Corner</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>11.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>15,0x80,0x1,0</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>25.92</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>15,0x110,0x1,0</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3D</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>60.48</v>
+        <v>42.08</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>18,0x30,0x1,5</t>
+          <t>15,0x80,0x1,2</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Split face&amp;Honed</t>
+          <t>Filled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>9.449999999999999</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>18,0x30,0x1,5</t>
+          <t>15,0x110,0x1,2</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Split face&amp;Honed</t>
+          <t>Filled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>8.74</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>18,0x50,0x1,7</t>
+          <t>15,0x71,0x5,0</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Brushed&amp;Bullnosed</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>3D Noce Puzzle</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>34.56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>18,0x50,0x1,7</t>
+          <t>15,0x45,7x1,2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>45.9</v>
+        <v>30.16</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>18,0x50,0x1,0</t>
+          <t>15,25x61,0x1,2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Silver Panel 3D</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>19.44</v>
+        <v>503.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>15,25x61,0x1,2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Light Philadelphia</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>50.4</v>
+        <v>163.73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2,3x4,8x1,5</t>
+          <t>15,25x15,25x1,0</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>20.93</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2,3x2,3x2,0</t>
+          <t>15,25x15,25x1,0</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Gold Mix</t>
+          <t>Desert Silver</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26" t="n">
-        <v>75.33</v>
+        <v>50.3</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2,3x2,3x1,5</t>
+          <t>15,25x61,0x1,2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Metsil 31-3D&amp;Splitface</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Silver Cubic Mix</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>50.22</v>
+        <v>39.54</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2,5x10,0x1,5</t>
+          <t>15,25x40,6x1,2</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D28" t="n">
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>24.18</v>
+        <v>44.58</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2,5x10,0x2,0</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" t="n">
-        <v>14.88</v>
+        <v>78.14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2,5x10,0x1,0</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" t="n">
-        <v>50.22</v>
+        <v>179.45</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2,5x2,5 x1,5</t>
+          <t>15,25x30,5x3,0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Tumbled</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Classic Cubic</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E31" t="n">
-        <v>25.12</v>
+        <v>41.86</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>20,0x60,0x1,5</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Classic Vein Cut 3D</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" t="n">
-        <v>99.52</v>
+        <v>124</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>20,0x60,0x1,2</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D33" t="n">
         <v>1</v>
       </c>
       <c r="E33" t="n">
-        <v>21.6</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Romano</t>
+          <t>Silver Panel</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>52.74</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>20,3x20,3x1,2</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Romano</t>
+          <t>Philadelphia Panel</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E35" t="n">
-        <v>263.7</v>
+        <v>64.8</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>20,3x40,6x2,0</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1223,89 +1291,89 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Classic Mina Panel</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>17.64</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>20,3x40,6x2,0</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>3D</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Noche Beige Corner</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="n">
-        <v>17.64</v>
+        <v>60.48</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>20,3x40,6x2,0</t>
+          <t>18,0x30,0x1,5</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Split face&amp;Honed</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Gold Beige Panel</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>49.86</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>20,3x40,6x2,0</t>
+          <t>18,0x30,0x1,5</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Split face&amp;Honed</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Noche Panel</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>35.28</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>20,3x40,6x2,0</t>
+          <t>18,0x50,0x1,7</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1315,278 +1383,278 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Noche Beige Panel</t>
+          <t>3D Noce Puzzle</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>35.28</v>
+        <v>34.56</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>18,0x50,0x1,7</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>212.62</v>
+        <v>45.9</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>20,3x20,3x1,2</t>
+          <t>18,0x50,0x</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Scabos - Panel</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>263.7</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>18,0x50,0x1,0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Panel 3D</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>84.06</v>
+        <v>19.44</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>18,0x50,0x1,5</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Semi Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Yellow TS-Y-PZ15</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E44" t="n">
-        <v>84.89</v>
+        <v>72.36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>18,0x50,0x1,5</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E45" t="n">
-        <v>128.58</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>19,0x40,0x5,0</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Brushed&amp;Bullnosed</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E46" t="n">
-        <v>41.2</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>20,3xSETx1,2</t>
+          <t>2,0x16,0x2,0</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Polished&amp;Bullnose</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Naturella Cream</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>41.57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>20,3x50,8x1,2</t>
+          <t>2,3x4,8x1,5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sonoma</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>132</v>
+        <v>20.93</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>20,3x20,3x1,2</t>
+          <t>2,3x2,3x2,0</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Gold Mix</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E49" t="n">
-        <v>52.74</v>
+        <v>75.33</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>2,3x2,3x1,2</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Cubic Beige 3D</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>53.92</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>2,3x2,3x1,5</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Metsil 31-3D&amp;Splitface</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Silver Cubic Mix</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>133.74</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>2,5x10,0x1,5</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1595,21 +1663,21 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>173.85</v>
+        <v>39.06</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>2,5x10,0x2,0</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1618,430 +1686,430 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>128.78</v>
+        <v>14.88</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>2,5x10,0x1,0</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>43.02</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>2,5x2,5 x1,5</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Classic Cubic</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>532.96</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>2,5x5,0x1,0</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Emperador Dark</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>44.5</v>
+        <v>40.18</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>2,5x2,5x1,0</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>GL132647</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>339.55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>20,0x60,0x1,5</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Vein Cut 3D</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>21.6</v>
+        <v>16.56</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>20,0x60,0x1,2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>126</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>20,0x60,0x1,5</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Splitface</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Yellow TB-Y-P26</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
-        <v>68.04000000000001</v>
+        <v>12.96</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>30,0x50,0x2,0</t>
+          <t>20,0x100,0x8,0</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Brushed</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>126</v>
+        <v>38</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>20,0x90,0x2,0</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E62" t="n">
-        <v>45.36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>30,0x60,0x3,0</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Romano</t>
         </is>
       </c>
       <c r="D63" t="n">
         <v>2</v>
       </c>
       <c r="E63" t="n">
-        <v>22.68</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>30,0xFREEx3,0</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>21.96</v>
+        <v>81.98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x20,3x1,2</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Romano</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E65" t="n">
-        <v>195.35</v>
+        <v>263.7</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x20,3x1,2</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Volcano</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D66" t="n">
         <v>1</v>
       </c>
       <c r="E66" t="n">
-        <v>39.07</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x2,0</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Classic Mina Panel</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
-        <v>277.74</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x2,0</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Storm Noche</t>
+          <t>Noche Beige Corner</t>
         </is>
       </c>
       <c r="D68" t="n">
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>37.95</v>
+        <v>17.64</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x2,0</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Noche Vein Cut</t>
+          <t>Gold Beige Panel</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E69" t="n">
-        <v>78.14</v>
+        <v>49.86</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x2,0</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Noche Panel</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E70" t="n">
-        <v>234.42</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x2,0</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Noche Beige Panel</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>39.07</v>
+        <v>35.28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2051,158 +2119,158 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Volcano Vein Cut</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E72" t="n">
-        <v>232.18</v>
+        <v>212.62</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x20,3x1,2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="E73" t="n">
-        <v>1014.7</v>
+        <v>237.33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74" t="n">
-        <v>123.72</v>
+        <v>84.06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>30,5x45,7x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Semi Polished</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="D75" t="n">
         <v>2</v>
       </c>
       <c r="E75" t="n">
-        <v>66.90000000000001</v>
+        <v>84.89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>78.14</v>
+        <v>128.58</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Yellow Vein Cut</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="D77" t="n">
         <v>1</v>
       </c>
       <c r="E77" t="n">
-        <v>39.07</v>
+        <v>41.2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x20,3x1,2</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E78" t="n">
-        <v>119.07</v>
+        <v>52.74</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2212,43 +2280,43 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Noche Vein Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D79" t="n">
         <v>2</v>
       </c>
       <c r="E79" t="n">
-        <v>78.14</v>
+        <v>95.03</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>77.02</v>
+        <v>133.74</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2258,112 +2326,112 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Golden Ink Vein Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" t="n">
-        <v>37.95</v>
+        <v>173.85</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E82" t="n">
-        <v>37.95</v>
+        <v>128.78</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E83" t="n">
-        <v>156.28</v>
+        <v>44.5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Silver Rustic Vein Cut</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E84" t="n">
-        <v>39.07</v>
+        <v>339.55</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Ela</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E85" t="n">
-        <v>23.44</v>
+        <v>410.1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2373,359 +2441,359 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E86" t="n">
-        <v>195.35</v>
+        <v>249.14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E87" t="n">
-        <v>39.07</v>
+        <v>168.4</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>22,0x100,0x14,0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Honed&amp;Half Bullnose</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Silver Dark Vein Cut</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>39.07</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>39.07</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Noche Rustic Vein Cut</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D90" t="n">
         <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>39.07</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Classic Mix</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E91" t="n">
-        <v>26.42</v>
+        <v>68.04000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E92" t="n">
-        <v>117.21</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Silver Rustic Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E93" t="n">
-        <v>39.07</v>
+        <v>45.36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>39.07</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>30,5x61,0x3,0</t>
+          <t>30,0x60,0x3,0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>75.34999999999999</v>
+        <v>14.04</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,0xFREEx3,0</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E96" t="n">
-        <v>234.42</v>
+        <v>21.96</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Volcano Vein Cut</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D97" t="n">
         <v>1</v>
       </c>
       <c r="E97" t="n">
-        <v>39.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>30,5x45,7x1,2</t>
+          <t>30,0x100,0x3,0</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Polished&amp;Bullnose</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Bluestone</t>
         </is>
       </c>
       <c r="D98" t="n">
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>35.54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30,5x40,6x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E99" t="n">
-        <v>25.26</v>
+        <v>204.12</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,0x40,0x5,0</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Brushed&amp;Bullnosed</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Golden Ink Vein Cut</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E100" t="n">
-        <v>78.14</v>
+        <v>342</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101" t="n">
-        <v>40.93</v>
+        <v>46.12</v>
       </c>
     </row>
     <row r="102">
@@ -2736,19 +2804,19 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E102" t="n">
-        <v>39.07</v>
+        <v>195.35</v>
       </c>
     </row>
     <row r="103">
@@ -2759,19 +2827,19 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E103" t="n">
-        <v>156.28</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="104">
@@ -2782,19 +2850,19 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E104" t="n">
-        <v>273.49</v>
+        <v>707.51</v>
       </c>
     </row>
     <row r="105">
@@ -2805,71 +2873,71 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E105" t="n">
-        <v>148.85</v>
+        <v>546.98</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>30,5x61,0x3,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E106" t="n">
-        <v>60.28</v>
+        <v>273.49</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>30,5x45,7x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Storm Noche</t>
         </is>
       </c>
       <c r="D107" t="n">
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>36.8</v>
+        <v>37.95</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>30,5x61,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2879,66 +2947,66 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Noche Vein Cut</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E108" t="n">
-        <v>140.64</v>
+        <v>78.14</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>31,0x30,5x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Gold Classic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="E109" t="n">
-        <v>54.07</v>
+        <v>1462.33</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>4,8x10,0x1,5</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Ivory</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D110" t="n">
         <v>1</v>
       </c>
       <c r="E110" t="n">
-        <v>15.35</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>40 x100 x2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -2948,20 +3016,20 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Noce Vein Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E111" t="n">
-        <v>16.4</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>40,0x80,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -2971,66 +3039,66 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Walnut Vein Cut</t>
+          <t>Volcano Vein Cut</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E112" t="n">
-        <v>16</v>
+        <v>217.85</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>40,0x80,0x2,0</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Polished&amp;Bevelled</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E113" t="n">
-        <v>13.76</v>
+        <v>135.81</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>40,0x40,0x3,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E114" t="n">
-        <v>10.88</v>
+        <v>1483.54</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>40,0x80,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -3040,43 +3108,43 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>32.32</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>40,0x80,0x2,0</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>16</v>
+        <v>48.56</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>40,0x60,0x2,0</t>
+          <t>30,5x45,7x1,2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -3086,89 +3154,89 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E117" t="n">
-        <v>24</v>
+        <v>298.28</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>40,0x100,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E118" t="n">
-        <v>39.6</v>
+        <v>78.14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>40,6x61,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Yellow Vein Cut</t>
         </is>
       </c>
       <c r="D119" t="n">
         <v>1</v>
       </c>
       <c r="E119" t="n">
-        <v>31.63</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>40,6x61,0x3,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="E120" t="n">
-        <v>98.09999999999999</v>
+        <v>1670.71</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x30,5x1,2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3178,66 +3246,66 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Romano</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E121" t="n">
-        <v>89.16</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122" t="n">
-        <v>26.25</v>
+        <v>59.54</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>160.99</v>
+        <v>37.21</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -3247,89 +3315,89 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Storm Noche Vein Cut</t>
+          <t>Noche Vein Cut</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E124" t="n">
-        <v>39.63</v>
+        <v>195.35</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Golden Ink Vein Cut</t>
+          <t>Walnut Vein Cut</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E125" t="n">
-        <v>39.63</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E126" t="n">
-        <v>39.63</v>
+        <v>78.14</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="D127" t="n">
         <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>84.2</v>
+        <v>77.02</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -3339,20 +3407,20 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Golden Ink Vein Cut</t>
         </is>
       </c>
       <c r="D128" t="n">
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>28.02</v>
+        <v>37.95</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3362,181 +3430,181 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="D129" t="n">
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>28.02</v>
+        <v>37.95</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Sofita Beige</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E130" t="n">
-        <v>334.33</v>
+        <v>59.54</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E131" t="n">
-        <v>39.63</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>40,6x61,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Silver Rustic Vein Cut</t>
         </is>
       </c>
       <c r="D132" t="n">
         <v>1</v>
       </c>
       <c r="E132" t="n">
-        <v>24.77</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
-        <v>84.2</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="D134" t="n">
         <v>1</v>
       </c>
       <c r="E134" t="n">
-        <v>42.1</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Silver Dark Vein Cut</t>
         </is>
       </c>
       <c r="D135" t="n">
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>25.76</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>40,6x61,0x3,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed&amp;Bullnosed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Pablo Vein Cut</t>
+          <t>Yellow Vein Cut</t>
         </is>
       </c>
       <c r="D136" t="n">
         <v>1</v>
       </c>
       <c r="E136" t="n">
-        <v>16.09</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x30,5x1,2</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3546,94 +3614,94 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Picasso Grey</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E137" t="n">
-        <v>79.26000000000001</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>40,6x61,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Noche Rustic Vein Cut</t>
         </is>
       </c>
       <c r="D138" t="n">
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>24.76</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Mix</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E139" t="n">
-        <v>52.74</v>
+        <v>26.42</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Classic Mix</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E140" t="n">
-        <v>339.28</v>
+        <v>446.55</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -3642,39 +3710,39 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E141" t="n">
-        <v>42.1</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Silver Rustic Vein Cut</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E142" t="n">
-        <v>339.28</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -3684,20 +3752,20 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Picasso Silver</t>
+          <t>Basketweave</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E143" t="n">
-        <v>158.52</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>30,5x61,0x3,0</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -3714,36 +3782,36 @@
         <v>1</v>
       </c>
       <c r="E144" t="n">
-        <v>28.02</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E145" t="n">
-        <v>33.42</v>
+        <v>78.14</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3753,89 +3821,89 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Volcano Vein Cut</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E146" t="n">
-        <v>409.71</v>
+        <v>156.28</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>30,5x45,7x1,2</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D147" t="n">
         <v>1</v>
       </c>
       <c r="E147" t="n">
-        <v>35.5</v>
+        <v>35.54</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>30,5x40,6x1,2</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Storm Noche Kristalli</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>100.26</v>
+        <v>25.26</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Golden Ink Vein Cut</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E149" t="n">
-        <v>33.42</v>
+        <v>195.35</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -3845,595 +3913,595 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D150" t="n">
         <v>1</v>
       </c>
       <c r="E150" t="n">
-        <v>33.42</v>
+        <v>40.93</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E151" t="n">
-        <v>35.5</v>
+        <v>117.21</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>5 x5 x1,5</t>
+          <t>30,5x61,0x2,0</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E152" t="n">
-        <v>25.12</v>
+        <v>140.64</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>5,0xFREEx2,0</t>
+          <t>30,5x45,7x1,2</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E153" t="n">
-        <v>33</v>
+        <v>115.69</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>5,0x10,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E154" t="n">
-        <v>25.11</v>
+        <v>459.54</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>5,0xFREEx1,5</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E155" t="n">
-        <v>58</v>
+        <v>39.07</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>5,0x10,0x1,5</t>
+          <t>30,5x61,0x2,0</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Ela</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>25.12</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>5,0x10,0x1,5</t>
+          <t>31,0x30,5x1,2</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Gold Classic</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157" t="n">
-        <v>26.98</v>
+        <v>54.07</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>50,0x100,0x2,0</t>
+          <t>31,3x100,0x1,2</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>200</v>
+        <v>84.51000000000001</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>7,5xFREEx1,2</t>
+          <t>35,0x120,0x2,0</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Sandblasted&amp;Brushed&amp;Grooved</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Bluestone</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>168</v>
+        <v>100</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>4,8x4,8x1,5</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>77.31999999999999</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>4,8x4,8x1,5</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Tumbled&amp;Splitface&amp;Varnish</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Volcano</t>
+          <t>Safari Gold</t>
         </is>
       </c>
       <c r="D161" t="n">
         <v>2</v>
       </c>
       <c r="E161" t="n">
-        <v>77.31999999999999</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>4,8x30,5x2,7</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Classic Ogee 1</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>84.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ANTxPATx3,0</t>
+          <t>4,8x4,8x1,5</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Tumbled&amp;Splitface&amp;Varnish</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Safari Silver</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163" t="n">
-        <v>16.35</v>
+        <v>50.22</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>4,8x10,0x1,5</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Ivory</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E164" t="n">
-        <v>77.31999999999999</v>
+        <v>15.35</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ANTxPATx3,2</t>
+          <t>40,0x100,0x2,0</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Noce Vein Cut</t>
         </is>
       </c>
       <c r="D165" t="n">
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>14.87</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,0x80,0x2,0</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Walnut Vein Cut</t>
         </is>
       </c>
       <c r="D166" t="n">
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>38.66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,0x80,0x2,0</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>347.94</v>
+        <v>13.76</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,0x40,0x3,0</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D168" t="n">
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>38.66</v>
+        <v>10.88</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ANTxPATx3,0</t>
+          <t>40,0x80,0x2,0</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Storm Noche</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169" t="n">
-        <v>14.87</v>
+        <v>32.32</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ANTxPATx2,0</t>
+          <t>40,0x80,0x2,0</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Polished</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D170" t="n">
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>25.28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Storm Noche</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>695.88</v>
+        <v>24</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,0x100,0x2,0</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Thula Mix</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E172" t="n">
-        <v>38.66</v>
+        <v>39.6</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,0x150,0x2,0</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Tumbled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Volcano</t>
+          <t>Ice Grey</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E173" t="n">
-        <v>54.27</v>
+        <v>34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,0x90,0x2,0</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Puffin Grey</t>
         </is>
       </c>
       <c r="D174" t="n">
         <v>1</v>
       </c>
       <c r="E174" t="n">
-        <v>19.33</v>
+        <v>15.12</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>40,0x40,0x5,0</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Brushed&amp;Bullnosed</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E175" t="n">
-        <v>203.7</v>
+        <v>300</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>ANTxPATx3,0</t>
+          <t>40,6x61,0x2,0</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -4443,41 +4511,2755 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E176" t="n">
-        <v>196.2</v>
+        <v>79.67</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
+          <t>40,6x40,6x1,2</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>1</v>
+      </c>
+      <c r="E177" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>1</v>
+      </c>
+      <c r="E178" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>40,6x61,0x3,2</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>1</v>
+      </c>
+      <c r="E179" t="n">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>1</v>
+      </c>
+      <c r="E180" t="n">
+        <v>36.15</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>40,6x61,0x3,0</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>1</v>
+      </c>
+      <c r="E181" t="n">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>40,6x61,0x3,0</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>1</v>
+      </c>
+      <c r="E182" t="n">
+        <v>15.85</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>4</v>
+      </c>
+      <c r="E183" t="n">
+        <v>160.99</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>40,6x61,0x3,0</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Mix Koyu</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>16.32</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Storm Noche Vein Cut</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>1</v>
+      </c>
+      <c r="E185" t="n">
+        <v>39.63</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Golden Ink Vein Cut</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>1</v>
+      </c>
+      <c r="E186" t="n">
+        <v>39.63</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Golden Ink</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>1</v>
+      </c>
+      <c r="E187" t="n">
+        <v>39.63</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>2</v>
+      </c>
+      <c r="E188" t="n">
+        <v>84.2</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>7</v>
+      </c>
+      <c r="E189" t="n">
+        <v>292.23</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>40,6x61,0x2,0</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>1</v>
+      </c>
+      <c r="E190" t="n">
+        <v>24.77</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>5</v>
+      </c>
+      <c r="E191" t="n">
+        <v>217.94</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Pablo</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>1</v>
+      </c>
+      <c r="E192" t="n">
+        <v>42.1</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Red</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>1</v>
+      </c>
+      <c r="E193" t="n">
+        <v>18.33</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>40,6x61,0x3,0</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed&amp;Bullnosed</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Pablo Vein Cut</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>1</v>
+      </c>
+      <c r="E194" t="n">
+        <v>16.09</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Filled&amp;Polished</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Picasso Grey</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>2</v>
+      </c>
+      <c r="E195" t="n">
+        <v>79.26000000000001</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>40,6x61,0x2,0</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>1</v>
+      </c>
+      <c r="E196" t="n">
+        <v>24.76</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>40,6x40,6x1,2</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>2</v>
+      </c>
+      <c r="E197" t="n">
+        <v>52.74</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>14</v>
+      </c>
+      <c r="E198" t="n">
+        <v>593.87</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>1</v>
+      </c>
+      <c r="E199" t="n">
+        <v>39.63</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Filled&amp;Semi Polished</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>2</v>
+      </c>
+      <c r="E200" t="n">
+        <v>86.68000000000001</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Picasso Silver</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>4</v>
+      </c>
+      <c r="E201" t="n">
+        <v>158.52</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>40,6x40,6x1,2</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Pablo</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>1</v>
+      </c>
+      <c r="E202" t="n">
+        <v>28.02</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>40,6x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>2</v>
+      </c>
+      <c r="E203" t="n">
+        <v>79.26000000000001</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>40,6x40,6x1,2</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>1</v>
+      </c>
+      <c r="E204" t="n">
+        <v>28.02</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>2</v>
+      </c>
+      <c r="E205" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Ivory Rustic</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>1</v>
+      </c>
+      <c r="E206" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>24</v>
+      </c>
+      <c r="E207" t="n">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Golden Ink</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>1</v>
+      </c>
+      <c r="E208" t="n">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Storm Noche Kristalli</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>3</v>
+      </c>
+      <c r="E209" t="n">
+        <v>100.26</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>1</v>
+      </c>
+      <c r="E210" t="n">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Polished&amp;Bevelled</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Cappuccino Light</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>1</v>
+      </c>
+      <c r="E211" t="n">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>1</v>
+      </c>
+      <c r="E212" t="n">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>1</v>
+      </c>
+      <c r="E213" t="n">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>45,7x45,7x1,2</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>5</v>
+      </c>
+      <c r="E214" t="n">
+        <v>167.1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>5,0xFREEx2,0</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>1</v>
+      </c>
+      <c r="E215" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>5,0x10,0x2,0</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>1</v>
+      </c>
+      <c r="E216" t="n">
+        <v>25.11</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>5,0xFREEx1,5</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>3</v>
+      </c>
+      <c r="E217" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>5,0x10,0x1,5</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Pablo</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>1</v>
+      </c>
+      <c r="E218" t="n">
+        <v>25.12</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>5,0x10,0x1,5</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
+        <v>1</v>
+      </c>
+      <c r="E219" t="n">
+        <v>26.98</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>5,0x5,0x</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Royal Beige</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>1</v>
+      </c>
+      <c r="E220" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>5,0x10,0x</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Bianco Ibiza</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>3</v>
+      </c>
+      <c r="E221" t="n">
+        <v>163.26</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>5,0x20,0x1,0</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Burdur Beige</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>2</v>
+      </c>
+      <c r="E222" t="n">
+        <v>35.72</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>50,0x100,0x2,0</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>2</v>
+      </c>
+      <c r="E223" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>50,0x50,0x2,0</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Tundra Grey</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>2</v>
+      </c>
+      <c r="E224" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>60,0x60,0x2,0</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Bianco Ibiza White</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>2</v>
+      </c>
+      <c r="E225" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>60,0x60,0x2,0</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>12</v>
+      </c>
+      <c r="E226" t="n">
+        <v>221.4</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>60,0x60,0x2,0</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>1</v>
+      </c>
+      <c r="E227" t="n">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>60,0x60,0x2,0</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Cement Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Classic Vein Cut</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>27</v>
+      </c>
+      <c r="E228" t="n">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>60,0x60,0x2,0</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>8</v>
+      </c>
+      <c r="E229" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>61,0x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
+        <v>15</v>
+      </c>
+      <c r="E230" t="n">
+        <v>446.55</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>61,0x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Cappuccino Light</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
+        <v>3</v>
+      </c>
+      <c r="E231" t="n">
+        <v>89.31</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>61,0x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
+        <v>1</v>
+      </c>
+      <c r="E232" t="n">
+        <v>25.3</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>61,0x61,0x1,2</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
+        <v>1</v>
+      </c>
+      <c r="E233" t="n">
+        <v>8.19</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>61,0x61,0x3,0</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
+        <v>1</v>
+      </c>
+      <c r="E234" t="n">
+        <v>7.81</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>61,0x61,0x3,0</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Filled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
+        <v>52</v>
+      </c>
+      <c r="E235" t="n">
+        <v>619.3200000000001</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>61,0x122.0x2,0</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
+        <v>21</v>
+      </c>
+      <c r="E236" t="n">
+        <v>500.1</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>7,5x15,0x1,0</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
+        <v>4</v>
+      </c>
+      <c r="E237" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>7,5xFREEx1,2</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
+        <v>4</v>
+      </c>
+      <c r="E238" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>7,50x15,0x1,0</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
+        <v>2</v>
+      </c>
+      <c r="E239" t="n">
+        <v>69.75</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>9,0x40,0x5,0</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Brushed&amp;Bullnosed</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
+        <v>4</v>
+      </c>
+      <c r="E240" t="n">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>90,0x26,0x3,0</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
+        <v>1</v>
+      </c>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Scott Rustic</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
+        <v>3</v>
+      </c>
+      <c r="E242" t="n">
+        <v>115.98</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
+        <v>8</v>
+      </c>
+      <c r="E243" t="n">
+        <v>194.78</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
+        <v>17</v>
+      </c>
+      <c r="E244" t="n">
+        <v>382.06</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
+        <v>5</v>
+      </c>
+      <c r="E245" t="n">
+        <v>193.3</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Volcano</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
+        <v>2</v>
+      </c>
+      <c r="E246" t="n">
+        <v>77.31999999999999</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
+        <v>2</v>
+      </c>
+      <c r="E247" t="n">
+        <v>84.75</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>ANTxPATx3,0</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
+        <v>9</v>
+      </c>
+      <c r="E248" t="n">
+        <v>133.83</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>ANTxPATx3,0</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
+        <v>2</v>
+      </c>
+      <c r="E249" t="n">
+        <v>32.7</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Gold</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
+        <v>2</v>
+      </c>
+      <c r="E250" t="n">
+        <v>77.31999999999999</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Scott Rustic</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
+        <v>25</v>
+      </c>
+      <c r="E251" t="n">
+        <v>966.5</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
+        <v>3</v>
+      </c>
+      <c r="E252" t="n">
+        <v>115.98</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Walnut</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
+        <v>19</v>
+      </c>
+      <c r="E253" t="n">
+        <v>734.54</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>ANTxPATx3,2</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
+        <v>1</v>
+      </c>
+      <c r="E254" t="n">
+        <v>14.87</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
+        <v>1</v>
+      </c>
+      <c r="E255" t="n">
+        <v>38.66</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Ivory Rustic</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
+        <v>8</v>
+      </c>
+      <c r="E256" t="n">
+        <v>309.28</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Ivory Rustic</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
+        <v>1</v>
+      </c>
+      <c r="E257" t="n">
+        <v>38.66</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Mina Rustic</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
+        <v>27</v>
+      </c>
+      <c r="E258" t="n">
+        <v>1033.41</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Ela</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
+        <v>1</v>
+      </c>
+      <c r="E259" t="n">
+        <v>38.66</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>ANTxPATx3,0</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Storm Noche</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
+        <v>1</v>
+      </c>
+      <c r="E260" t="n">
+        <v>14.87</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>ANTxPATx2,0</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="n">
+        <v>25.28</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Storm Noche</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
+        <v>18</v>
+      </c>
+      <c r="E262" t="n">
+        <v>695.88</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
+        <v>9</v>
+      </c>
+      <c r="E263" t="n">
+        <v>347.94</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Sandblasted&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Bluestone</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
+        <v>26</v>
+      </c>
+      <c r="E264" t="n">
+        <v>586.59</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Thula Mix</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
+        <v>1</v>
+      </c>
+      <c r="E265" t="n">
+        <v>38.66</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Volcano</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
+        <v>2</v>
+      </c>
+      <c r="E266" t="n">
+        <v>54.27</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Silver Rustic</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
+        <v>5</v>
+      </c>
+      <c r="E267" t="n">
+        <v>203.7</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>ANTxPATx3,0</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
+        <v>1</v>
+      </c>
+      <c r="E268" t="n">
+        <v>16.35</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
+        <v>10</v>
+      </c>
+      <c r="E269" t="n">
+        <v>401.4</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>ANTxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Bluestone</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
+        <v>6</v>
+      </c>
+      <c r="E270" t="n">
+        <v>223.04</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>basketwievxbasketx1,2</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Bianco Ibiza  Mosaic 225</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
+        <v>1</v>
+      </c>
+      <c r="E271" t="n">
+        <v>10.23</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>FRxPATx1,2</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Diana Royal</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
+        <v>16</v>
+      </c>
+      <c r="E272" t="n">
+        <v>618.5599999999999</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>MinixPATx1,2</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Picasso Ivory</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
+        <v>2</v>
+      </c>
+      <c r="E273" t="n">
+        <v>77.76000000000001</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>SLABxSLABx2,0</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Brushed</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Classic Light</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
+        <v>1</v>
+      </c>
+      <c r="E274" t="n">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Burdur Beige</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
+        <v>2</v>
+      </c>
+      <c r="E275" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>VARxVARx1,2</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Herringbone&amp;Polished&amp;Mesh</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Solto Dark White</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
+        <v>11</v>
+      </c>
+      <c r="E276" t="n">
+        <v>349.25</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Burdur Beige</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
+        <v>1</v>
+      </c>
+      <c r="E277" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Burdur Beige</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
+        <v>1</v>
+      </c>
+      <c r="E278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Burdur Beige</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
+        <v>1</v>
+      </c>
+      <c r="E279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>VH44</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Elkay Maximax</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
+        <v>1</v>
+      </c>
+      <c r="E280" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
+        <v>6</v>
+      </c>
+      <c r="E281" t="n">
+        <v>159.58</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Blanco Esi</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
+        <v>6</v>
+      </c>
+      <c r="E282" t="n">
+        <v>136.8</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>VARxVARx6,0</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;2 Long Sides Bevelled</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
+        <v>1</v>
+      </c>
+      <c r="E283" t="n">
+        <v>35.64</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>VARxVARx6,0</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
+        <v>1</v>
+      </c>
+      <c r="E284" t="n">
+        <v>32.66</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>VARxVARx3,0</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
+        <v>1</v>
+      </c>
+      <c r="E285" t="n">
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>VARxVARx22.5</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;1,2m Side Bevelled</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
+        <v>1</v>
+      </c>
+      <c r="E286" t="n">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>VARxVARx2,0</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
+        <v>1</v>
+      </c>
+      <c r="E287" t="n">
+        <v>10.45</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>VARxVARx3,0</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
+        <v>1</v>
+      </c>
+      <c r="E288" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Fan</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
+        <v>1</v>
+      </c>
+      <c r="E289" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Cooker</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
+        <v>1</v>
+      </c>
+      <c r="E290" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Oven</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
+        <v>1</v>
+      </c>
+      <c r="E291" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Microvawe Oven</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
+        <v>1</v>
+      </c>
+      <c r="E292" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Refrigerator</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
+        <v>1</v>
+      </c>
+      <c r="E293" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>VARxVARxVAR</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Sink&amp;Faucet</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
+        <v>1</v>
+      </c>
+      <c r="E294" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
           <t>VariousxVariousx3,0</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B295" t="inlineStr">
         <is>
           <t>Filled&amp;Honed</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C295" t="inlineStr">
         <is>
           <t>Silver Grey</t>
         </is>
       </c>
-      <c r="D177" t="n">
-        <v>1</v>
-      </c>
-      <c r="E177" t="n">
+      <c r="D295" t="n">
+        <v>1</v>
+      </c>
+      <c r="E295" t="n">
         <v>14.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/resource_api/raporlar/dosyalar/Stok_listesi.xlsx
+++ b/resource_api/raporlar/dosyalar/Stok_listesi.xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E295"/>
+  <dimension ref="A1:F281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -495,6 +495,11 @@
           <t>M2</t>
         </is>
       </c>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Fiyat</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,6 +523,9 @@
       <c r="E2" t="n">
         <v>112</v>
       </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,6 +549,9 @@
       <c r="E3" t="n">
         <v>25</v>
       </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -564,6 +575,9 @@
       <c r="E4" t="n">
         <v>100</v>
       </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -587,6 +601,9 @@
       <c r="E5" t="n">
         <v>390</v>
       </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -610,6 +627,9 @@
       <c r="E6" t="n">
         <v>25</v>
       </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -633,6 +653,9 @@
       <c r="E7" t="n">
         <v>100</v>
       </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -656,6 +679,9 @@
       <c r="E8" t="n">
         <v>252</v>
       </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -679,6 +705,9 @@
       <c r="E9" t="n">
         <v>40</v>
       </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -700,7 +729,10 @@
         <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1536</v>
+        <v>1500</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -725,103 +757,118 @@
       <c r="E11" t="n">
         <v>20</v>
       </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>15,0xFREEx2,0</t>
+          <t>15,0x120,0x2,0</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Classic Rustic</t>
+          <t>Blanco Ivory</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>25</v>
+        <v>21.6</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>15,0xFREEx2,0</t>
+          <t>15,0x165,0x2,0</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Blanco Ivory</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>6.19</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>15,0x120,0x2,0</t>
+          <t>15,0x40,0x1,0</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Blanco Ivory</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>21.6</v>
+        <v>15</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>15,0x165,0x2,0</t>
+          <t>15,0x80,0x1,0</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Blanco Ivory</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>6.19</v>
+        <v>30</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15,0x40,0x1,0</t>
+          <t>15,0x110,0x1,0</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -835,154 +882,175 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>15</v>
+        <v>41.25</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>15,0x80,0x1,0</t>
+          <t>15,0x80,0x1,2</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Filled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>30</v>
+        <v>65</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>15,0x110,0x1,0</t>
+          <t>15,0x110,0x1,2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Filled&amp;Honed&amp;Beveled</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>42.08</v>
+        <v>120</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>15,0x80,0x1,2</t>
+          <t>15,0xFREEx2,0</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed&amp;Beveled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>15,0x110,0x1,2</t>
+          <t>15,0xFREEx2,0</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed&amp;Beveled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Rustic</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>1</v>
       </c>
       <c r="E20" t="n">
-        <v>120</v>
+        <v>25</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>15,0x71,0x5,0</t>
+          <t>15,25x61,0x1,2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Brushed&amp;Bullnosed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
-        <v>100</v>
+        <v>163.73</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>15,0x45,7x1,2</t>
+          <t>15,25x61,0x1,2</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>30.16</v>
+        <v>503.25</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>15,25x61,0x1,2</t>
+          <t>15,25x40,6x1,2</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -996,10 +1064,13 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>503.25</v>
+        <v>44.58</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1015,14 +1086,17 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
-        <v>163.73</v>
+        <v>39.54</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1047,6 +1121,9 @@
       <c r="E25" t="n">
         <v>50.3</v>
       </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1070,51 +1147,60 @@
       <c r="E26" t="n">
         <v>50.3</v>
       </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>15,25x61,0x1,2</t>
+          <t>15,25x30,5x1,2</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E27" t="n">
-        <v>39.54</v>
+        <v>179.45</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>15,25x40,6x1,2</t>
+          <t>15,25x30,5x3,0</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Tumbled</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" t="n">
-        <v>44.58</v>
+        <v>41.86</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1125,19 +1211,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>78.14</v>
+        <v>124</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1148,71 +1237,80 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" t="n">
-        <v>179.45</v>
+        <v>78.14</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>15,25x30,5x3,0</t>
+          <t>150,0x150,0x2,0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Tumbled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
-        <v>41.86</v>
+        <v>261</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>15,25x30,5x1,2</t>
+          <t>18,0x50,0x1,5</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32" t="n">
-        <v>124</v>
+        <v>32.4</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>18,0x50,0x1,5</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1222,43 +1320,49 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Yellow TS-Y-PZ15</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E33" t="n">
-        <v>25.2</v>
+        <v>72.36</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>18,0x50,0x1,0</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Silver Panel</t>
+          <t>Silver Panel 3D</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>1</v>
       </c>
       <c r="E34" t="n">
-        <v>17.82</v>
+        <v>19.44</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>18,0x50,0x</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1268,20 +1372,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Philadelphia Panel</t>
+          <t>Scabos - Panel</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" t="n">
-        <v>64.8</v>
+        <v>19.44</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>18,0x50,0x1,7</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1291,135 +1398,153 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>3D Noce Puzzle</t>
         </is>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="n">
-        <v>25.92</v>
+        <v>34.56</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>18,0x50,0x2,0</t>
+          <t>18,0x50,0x1,7</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3D</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="n">
-        <v>60.48</v>
+        <v>45.9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>18,0x30,0x1,5</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Split face&amp;Honed</t>
+          <t>3D</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>9.449999999999999</v>
+        <v>60.48</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>18,0x30,0x1,5</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Split face&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="n">
-        <v>8.74</v>
+        <v>25.92</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>18,0x50,0x1,7</t>
+          <t>18,0x30,0x1,5</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Split face&amp;Honed</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>3D Noce Puzzle</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="n">
-        <v>34.56</v>
+        <v>9.449999999999999</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>18,0x50,0x1,7</t>
+          <t>18,0x30,0x1,5</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Split face&amp;Honed</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="n">
-        <v>45.9</v>
+        <v>8.74</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>18,0x50,0x</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1429,43 +1554,49 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Scabos - Panel</t>
+          <t>Silver Panel</t>
         </is>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="n">
-        <v>19.44</v>
+        <v>17.82</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>18,0x50,0x1,0</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Silver Panel 3D</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="n">
-        <v>19.44</v>
+        <v>25.2</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>18,0x50,0x1,5</t>
+          <t>18,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1475,145 +1606,163 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yellow TS-Y-PZ15</t>
+          <t>Philadelphia Panel</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E44" t="n">
-        <v>72.36</v>
+        <v>64.8</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>18,0x50,0x1,5</t>
+          <t>2,0x16,0x2,0</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished&amp;Bullnose</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Naturella Cream</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="n">
-        <v>32.4</v>
+        <v>75</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>19,0x40,0x5,0</t>
+          <t>2,3x2,3x2,0</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Brushed&amp;Bullnosed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Gold Mix</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E46" t="n">
-        <v>1260</v>
+        <v>75.33</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2,0x16,0x2,0</t>
+          <t>2,3x4,8x1,5</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Polished&amp;Bullnose</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Naturella Cream</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D47" t="n">
         <v>1</v>
       </c>
       <c r="E47" t="n">
-        <v>75</v>
+        <v>20.93</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2,3x4,8x1,5</t>
+          <t>2,3x2,3x1,5</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Metsil 31-3D&amp;Splitface</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Silver Cubic Mix</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>20.93</v>
+        <v>50.22</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2,3x2,3x2,0</t>
+          <t>2,3x2,3x1,2</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Gold Mix</t>
+          <t>Cubic Beige 3D</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E49" t="n">
-        <v>75.33</v>
+        <v>50.22</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2,3x2,3x1,2</t>
+          <t>2,5x10,0x1,0</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Cubic Beige 3D</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D50" t="n">
@@ -1622,34 +1771,40 @@
       <c r="E50" t="n">
         <v>50.22</v>
       </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2,3x2,3x1,5</t>
+          <t>2,5x10,0x1,5</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Metsil 31-3D&amp;Splitface</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Silver Cubic Mix</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D51" t="n">
         <v>2</v>
       </c>
       <c r="E51" t="n">
-        <v>50.22</v>
+        <v>39.06</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2,5x10,0x1,5</t>
+          <t>2,5x10,0x2,0</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1663,39 +1818,45 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E52" t="n">
-        <v>39.06</v>
+        <v>14.88</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>2,5x10,0x2,0</t>
+          <t>2,5x2,5x1,0</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>GL132647</t>
         </is>
       </c>
       <c r="D53" t="n">
         <v>1</v>
       </c>
       <c r="E53" t="n">
-        <v>14.88</v>
+        <v>59</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>2,5x10,0x1,0</t>
+          <t>2,5x2,5 x1,5</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1705,20 +1866,23 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Classic Cubic</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" t="n">
-        <v>50.22</v>
+        <v>25.12</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>2,5x2,5 x1,5</t>
+          <t>2,5x5,0x1,0</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1728,175 +1892,199 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Classic Cubic</t>
+          <t>Emperador Dark</t>
         </is>
       </c>
       <c r="D55" t="n">
         <v>1</v>
       </c>
       <c r="E55" t="n">
-        <v>25.12</v>
+        <v>40.18</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>2,5x5,0x1,0</t>
+          <t>20,0x60,0x1,2</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Emperador Dark</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D56" t="n">
         <v>1</v>
       </c>
       <c r="E56" t="n">
-        <v>40.18</v>
+        <v>21.6</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2,5x2,5x1,0</t>
+          <t>20,0x60,0x1,5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Splitface</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>GL132647</t>
+          <t>Yellow TB-Y-P26</t>
         </is>
       </c>
       <c r="D57" t="n">
         <v>1</v>
       </c>
       <c r="E57" t="n">
-        <v>59</v>
+        <v>12.96</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>20,0x60,0x1,5</t>
+          <t>20,0x100,0x8,0</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Classic Vein Cut 3D</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="D58" t="n">
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>16.56</v>
+        <v>38</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>20,0x60,0x1,2</t>
+          <t>20,0x60,0x1,5</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Brushed</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Classic Vein Cut 3D</t>
         </is>
       </c>
       <c r="D59" t="n">
         <v>1</v>
       </c>
       <c r="E59" t="n">
-        <v>21.6</v>
+        <v>16.56</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>20,0x60,0x1,5</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Splitface</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Yellow TB-Y-P26</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E60" t="n">
-        <v>12.96</v>
+        <v>128.58</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>20,0x100,0x8,0</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Cappuccino Medium</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="D61" t="n">
         <v>1</v>
       </c>
       <c r="E61" t="n">
-        <v>38</v>
+        <v>41.2</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>20,0x90,0x2,0</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" t="n">
-        <v>7</v>
+        <v>84.06</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -1907,88 +2095,100 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Romano</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>52.74</v>
+        <v>212.62</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>20,3x20,3x1,2</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E64" t="n">
-        <v>81.98</v>
+        <v>237.33</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>20,3x20,3x1,2</t>
+          <t>20,3x40,6x2,0</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Romano</t>
+          <t>Noche Beige Corner</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
-        <v>263.7</v>
+        <v>17.64</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>20,3x20,3x1,2</t>
+          <t>20,3x40,6x2,0</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Gold Beige Panel</t>
         </is>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E66" t="n">
-        <v>8.039999999999999</v>
+        <v>49.86</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2004,14 +2204,17 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Classic Mina Panel</t>
+          <t>Noche Panel</t>
         </is>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" t="n">
-        <v>17.64</v>
+        <v>35.28</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2027,37 +2230,43 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Noche Beige Corner</t>
+          <t>Noche Beige Panel</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" t="n">
-        <v>17.64</v>
+        <v>35.28</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>20,3x40,6x2,0</t>
+          <t>20,3x20,3x1,2</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gold Beige Panel</t>
+          <t>Romano</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
-        <v>49.86</v>
+        <v>263.7</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2073,66 +2282,75 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Noche Panel</t>
+          <t>Classic Mina Panel</t>
         </is>
       </c>
       <c r="D70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E70" t="n">
-        <v>35.28</v>
+        <v>17.64</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>20,3x40,6x2,0</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Noche Beige Panel</t>
+          <t>Romano</t>
         </is>
       </c>
       <c r="D71" t="n">
         <v>2</v>
       </c>
       <c r="E71" t="n">
-        <v>35.28</v>
+        <v>52.74</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E72" t="n">
-        <v>212.62</v>
+        <v>81.98</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>20,3x20,3x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2142,60 +2360,69 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E73" t="n">
-        <v>237.33</v>
+        <v>168.4</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D74" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>84.06</v>
+        <v>249.14</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D75" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E75" t="n">
-        <v>84.89</v>
+        <v>410.1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2206,19 +2433,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D76" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E76" t="n">
-        <v>128.58</v>
+        <v>339.55</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -2229,19 +2459,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Semi Polished</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" t="n">
-        <v>41.2</v>
+        <v>84.89</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2266,11 +2499,14 @@
       <c r="E78" t="n">
         <v>52.74</v>
       </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>20,3x40,6x1,2</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2280,14 +2516,17 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E79" t="n">
-        <v>95.03</v>
+        <v>44.5</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2298,19 +2537,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E80" t="n">
-        <v>133.74</v>
+        <v>95.03</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2326,14 +2568,17 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" t="n">
-        <v>173.85</v>
+        <v>133.74</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2344,7 +2589,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2353,16 +2598,19 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E82" t="n">
-        <v>128.78</v>
+        <v>173.85</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>20,3x61,0x1,2</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2372,71 +2620,80 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E83" t="n">
-        <v>44.5</v>
+        <v>128.78</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>20,3x40,6x1,2</t>
+          <t>22,0x100,0x14,0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Honed&amp;Half Bullnose</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E84" t="n">
-        <v>339.55</v>
+        <v>7</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>30,0x30,0x2,0</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="D85" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
-        <v>410.1</v>
+        <v>15.3</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2445,62 +2702,71 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E86" t="n">
-        <v>249.14</v>
+        <v>46.12</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>20,3x61,0x1,2</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Grooved</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D87" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>168.4</v>
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>22,0x100,0x14,0</t>
+          <t>30,0x100,0x3,0</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Honed&amp;Half Bullnose</t>
+          <t>Polished&amp;Bullnose</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Cappuccino Medium</t>
+          <t>Bluestone</t>
         </is>
       </c>
       <c r="D88" t="n">
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>30,0xFREEx3,0</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2510,38 +2776,44 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D89" t="n">
         <v>1</v>
       </c>
       <c r="E89" t="n">
-        <v>21.6</v>
+        <v>21.96</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>30,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Brushed</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="D90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E90" t="n">
         <v>126</v>
       </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2556,37 +2828,43 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D91" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E91" t="n">
-        <v>68.04000000000001</v>
+        <v>45.36</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>30,0x50,0x2,0</t>
+          <t>30,0x60,0x3,0</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Brushed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E92" t="n">
-        <v>126</v>
+        <v>14.04</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -2597,19 +2875,22 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E93" t="n">
-        <v>45.36</v>
+        <v>5.4</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -2620,180 +2901,204 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="D94" t="n">
         <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>5.4</v>
+        <v>21.6</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>30,0x60,0x3,0</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D95" t="n">
         <v>1</v>
       </c>
       <c r="E95" t="n">
-        <v>14.04</v>
+        <v>126</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>30,0xFREEx3,0</t>
+          <t>30,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E96" t="n">
-        <v>21.96</v>
+        <v>68.04000000000001</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Grooved</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E97" t="n">
+        <v>37.21</v>
+      </c>
+      <c r="F97" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>30,0x100,0x3,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Polished&amp;Bullnose</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Anatolia Beige</t>
         </is>
       </c>
       <c r="D98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98" t="n">
-        <v>23</v>
+        <v>59.54</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>30,5x30,5x1,2</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
-        <v>204.12</v>
+        <v>39.07</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>30,0x40,0x5,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Brushed&amp;Bullnosed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D100" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="E100" t="n">
-        <v>342</v>
+        <v>1944.2</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>30,0x60,0x2,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Yellow Vein Cut</t>
         </is>
       </c>
       <c r="D101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" t="n">
-        <v>46.12</v>
+        <v>39.07</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -2804,7 +3109,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2813,10 +3118,13 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E102" t="n">
-        <v>195.35</v>
+        <v>78.14</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -2827,19 +3135,22 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Volcano</t>
+          <t>Noche Vein Cut</t>
         </is>
       </c>
       <c r="D103" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E103" t="n">
-        <v>39.07</v>
+        <v>195.35</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -2855,14 +3166,17 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Walnut Vein Cut</t>
         </is>
       </c>
       <c r="D104" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E104" t="n">
-        <v>707.51</v>
+        <v>156.28</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -2878,14 +3192,17 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="D105" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E105" t="n">
-        <v>546.98</v>
+        <v>77.02</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -2896,19 +3213,22 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Golden Ink Vein Cut</t>
         </is>
       </c>
       <c r="D106" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E106" t="n">
-        <v>273.49</v>
+        <v>37.95</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -2919,19 +3239,22 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Storm Noche</t>
+          <t>Silver Rustic Vein Cut</t>
         </is>
       </c>
       <c r="D107" t="n">
         <v>1</v>
       </c>
       <c r="E107" t="n">
-        <v>37.95</v>
+        <v>39.07</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -2947,14 +3270,17 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Noche Vein Cut</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="D108" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E108" t="n">
-        <v>78.14</v>
+        <v>156.28</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -2965,19 +3291,22 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="D109" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E109" t="n">
-        <v>1462.33</v>
+        <v>37.95</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="110">
@@ -2988,19 +3317,22 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Sofita Beige</t>
         </is>
       </c>
       <c r="D110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110" t="n">
-        <v>39.07</v>
+        <v>59.54</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -3011,19 +3343,22 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E111" t="n">
-        <v>117.21</v>
+        <v>1877.24</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="112">
@@ -3034,42 +3369,48 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Volcano Vein Cut</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E112" t="n">
-        <v>217.85</v>
+        <v>39.07</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E113" t="n">
-        <v>135.81</v>
+        <v>117.21</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -3085,14 +3426,17 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Volcano Vein Cut</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>1483.54</v>
+        <v>217.85</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -3108,60 +3452,69 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Storm Noche</t>
         </is>
       </c>
       <c r="D115" t="n">
         <v>1</v>
       </c>
       <c r="E115" t="n">
-        <v>39.07</v>
+        <v>37.95</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,0</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Noche Vein Cut</t>
         </is>
       </c>
       <c r="D116" t="n">
         <v>2</v>
       </c>
       <c r="E116" t="n">
-        <v>48.56</v>
+        <v>78.14</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>30,5x45,7x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E117" t="n">
-        <v>298.28</v>
+        <v>39.07</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3177,14 +3530,17 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E118" t="n">
-        <v>78.14</v>
+        <v>234.42</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -3200,14 +3556,17 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Yellow Vein Cut</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E119" t="n">
-        <v>39.07</v>
+        <v>707.51</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="120">
@@ -3223,20 +3582,23 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="E120" t="n">
-        <v>1670.71</v>
+        <v>39.07</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -3246,43 +3608,49 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E121" t="n">
-        <v>39.07</v>
+        <v>273.49</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x45,7x1,2</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Anatolia Beige</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E122" t="n">
-        <v>59.54</v>
+        <v>298.28</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -3292,37 +3660,43 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="D123" t="n">
         <v>2</v>
       </c>
       <c r="E123" t="n">
-        <v>37.21</v>
+        <v>48.56</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x30,5x1,0</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished&amp;Bevelled</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Noche Vein Cut</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E124" t="n">
-        <v>195.35</v>
+        <v>135.81</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -3333,19 +3707,22 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Walnut Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="E125" t="n">
-        <v>156.28</v>
+        <v>1483.54</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -3356,19 +3733,22 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E126" t="n">
-        <v>78.14</v>
+        <v>39.07</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -3384,14 +3764,17 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D127" t="n">
         <v>2</v>
       </c>
       <c r="E127" t="n">
-        <v>77.02</v>
+        <v>78.14</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -3407,20 +3790,23 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Golden Ink Vein Cut</t>
+          <t>Silver Dark Vein Cut</t>
         </is>
       </c>
       <c r="D128" t="n">
         <v>1</v>
       </c>
       <c r="E128" t="n">
-        <v>37.95</v>
+        <v>39.07</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x30,5x1,2</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -3430,14 +3816,17 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D129" t="n">
         <v>1</v>
       </c>
       <c r="E129" t="n">
-        <v>37.95</v>
+        <v>39.07</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -3448,19 +3837,22 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Sofita Beige</t>
+          <t>Noche Rustic Vein Cut</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E130" t="n">
-        <v>59.54</v>
+        <v>39.07</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -3471,19 +3863,22 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Mix</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E131" t="n">
-        <v>156.28</v>
+        <v>26.42</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -3494,19 +3889,22 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Silver Rustic Vein Cut</t>
+          <t>Classic Mix</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="E132" t="n">
-        <v>39.07</v>
+        <v>446.55</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -3517,19 +3915,22 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E133" t="n">
-        <v>156.28</v>
+        <v>117.21</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -3540,19 +3941,22 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Silver Rustic Vein Cut</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
-        <v>39.07</v>
+        <v>156.28</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="135">
@@ -3568,14 +3972,17 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Silver Dark Vein Cut</t>
+          <t>Yellow Vein Cut</t>
         </is>
       </c>
       <c r="D135" t="n">
         <v>1</v>
       </c>
       <c r="E135" t="n">
-        <v>39.07</v>
+        <v>23.44</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -3586,25 +3993,28 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Yellow Vein Cut</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E136" t="n">
-        <v>23.44</v>
+        <v>156.28</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>30,5x30,5x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -3614,7 +4024,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="D137" t="n">
@@ -3623,6 +4033,9 @@
       <c r="E137" t="n">
         <v>39.07</v>
       </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3632,19 +4045,22 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Noche Rustic Vein Cut</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D138" t="n">
         <v>1</v>
       </c>
       <c r="E138" t="n">
-        <v>39.07</v>
+        <v>40.93</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="139">
@@ -3655,19 +4071,22 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Classic Mix</t>
+          <t>Golden Ink Vein Cut</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E139" t="n">
-        <v>26.42</v>
+        <v>195.35</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -3678,65 +4097,74 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Classic Mix</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E140" t="n">
-        <v>446.55</v>
+        <v>117.21</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x40,6x1,2</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E141" t="n">
-        <v>117.21</v>
+        <v>25.26</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x45,7x1,2</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Silver Rustic Vein Cut</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E142" t="n">
-        <v>156.28</v>
+        <v>35.54</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -3761,6 +4189,9 @@
       <c r="E143" t="n">
         <v>6.51</v>
       </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3784,6 +4215,9 @@
       <c r="E144" t="n">
         <v>15.07</v>
       </c>
+      <c r="F144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3807,6 +4241,9 @@
       <c r="E145" t="n">
         <v>78.14</v>
       </c>
+      <c r="F145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3830,34 +4267,40 @@
       <c r="E146" t="n">
         <v>156.28</v>
       </c>
+      <c r="F146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>30,5x45,7x1,2</t>
+          <t>30,5x61,0x1,2</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E147" t="n">
-        <v>35.54</v>
+        <v>459.54</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>30,5x40,6x1,2</t>
+          <t>30,5x61,0x2,0</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -3867,20 +4310,23 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Ela</t>
         </is>
       </c>
       <c r="D148" t="n">
         <v>1</v>
       </c>
       <c r="E148" t="n">
-        <v>25.26</v>
+        <v>23.44</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x45,7x1,2</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -3890,388 +4336,439 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Golden Ink Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E149" t="n">
-        <v>195.35</v>
+        <v>115.69</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>30,5x61,0x2,0</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Yellow</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E150" t="n">
-        <v>40.93</v>
+        <v>140.64</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>31,0x30,5x1,2</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Gold Classic</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E151" t="n">
-        <v>117.21</v>
+        <v>54.07</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>30,5x61,0x2,0</t>
+          <t>31,3x100,0x1,2</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Yellow</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E152" t="n">
-        <v>140.64</v>
+        <v>84.51000000000001</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>30,5x45,7x1,2</t>
+          <t>33,0x125,0x2,0</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished&amp;Grooved&amp;Bevelled</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E153" t="n">
-        <v>115.69</v>
+        <v>4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>33,0x125,0x2,0</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cappuccino Medium</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="E154" t="n">
-        <v>459.54</v>
+        <v>4</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>30,5x61,0x1,2</t>
+          <t>35,0x120,0x2,0</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Sandblasted&amp;Brushed&amp;Grooved</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Bluestone</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155" t="n">
-        <v>39.07</v>
+        <v>100</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>30,5x61,0x2,0</t>
+          <t>4,8x10,0x1,5</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Ela</t>
+          <t>Ivory</t>
         </is>
       </c>
       <c r="D156" t="n">
         <v>1</v>
       </c>
       <c r="E156" t="n">
-        <v>23.44</v>
+        <v>15.35</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>31,0x30,5x1,2</t>
+          <t>4,8x4,8x1,5</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Gold Classic</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E157" t="n">
-        <v>54.07</v>
+        <v>25.12</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>31,3x100,0x1,2</t>
+          <t>4,8x4,8x1,5</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Tumbled&amp;Splitface&amp;Varnish</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Safari Silver</t>
         </is>
       </c>
       <c r="D158" t="n">
         <v>2</v>
       </c>
       <c r="E158" t="n">
-        <v>84.51000000000001</v>
+        <v>50.22</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>35,0x120,0x2,0</t>
+          <t>4,8x4,8x1,5</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed&amp;Grooved</t>
+          <t>Tumbled&amp;Splitface&amp;Varnish</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Safari Gold</t>
         </is>
       </c>
       <c r="D159" t="n">
         <v>2</v>
       </c>
       <c r="E159" t="n">
-        <v>100</v>
+        <v>50.22</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>4,8x4,8x1,5</t>
+          <t>4,8x30,5x2,7</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Classic Ogee 1</t>
         </is>
       </c>
       <c r="D160" t="n">
         <v>1</v>
       </c>
       <c r="E160" t="n">
-        <v>25.12</v>
+        <v>100</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>4,8x4,8x1,5</t>
+          <t>40,0x80,0x2,0</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tumbled&amp;Splitface&amp;Varnish</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Safari Gold</t>
+          <t>Silver Vein Cut</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E161" t="n">
-        <v>50.22</v>
+        <v>13.76</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>4,8x30,5x2,7</t>
+          <t>40,0x80,0x2,0</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Classic Ogee 1</t>
+          <t>Walnut Vein Cut</t>
         </is>
       </c>
       <c r="D162" t="n">
         <v>1</v>
       </c>
       <c r="E162" t="n">
-        <v>100</v>
+        <v>16</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>4,8x4,8x1,5</t>
+          <t>40,0x40,0x3,0</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tumbled&amp;Splitface&amp;Varnish</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Safari Silver</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E163" t="n">
-        <v>50.22</v>
+        <v>10.88</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>4,8x10,0x1,5</t>
+          <t>40,0x80,0x2,0</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Ivory</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164" t="n">
-        <v>15.35</v>
+        <v>32.32</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>40,0x100,0x2,0</t>
+          <t>40,0x80,0x2,0</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Polished</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Noce Vein Cut</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D165" t="n">
         <v>1</v>
       </c>
       <c r="E165" t="n">
-        <v>16.4</v>
+        <v>16</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>40,0x80,0x2,0</t>
+          <t>40,0x100,0x2,0</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -4281,20 +4778,23 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Walnut Vein Cut</t>
+          <t>Noce Vein Cut</t>
         </is>
       </c>
       <c r="D166" t="n">
         <v>1</v>
       </c>
       <c r="E166" t="n">
-        <v>16</v>
+        <v>16.4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>40,0x80,0x2,0</t>
+          <t>40,0x100,0x2,0</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -4304,20 +4804,23 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Silver Vein Cut</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E167" t="n">
-        <v>13.76</v>
+        <v>39.6</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>40,0x40,0x3,0</t>
+          <t>40,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
@@ -4327,204 +4830,231 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D168" t="n">
         <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>10.88</v>
+        <v>24</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>40,0x80,0x2,0</t>
+          <t>40,0x150,0x2,0</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Ice Grey</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>32.32</v>
+        <v>34</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>40,0x80,0x2,0</t>
+          <t>40,0x90,0x2,0</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Polished</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Puffin Grey</t>
         </is>
       </c>
       <c r="D170" t="n">
         <v>1</v>
       </c>
       <c r="E170" t="n">
-        <v>16</v>
+        <v>15.12</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>40,0x60,0x2,0</t>
+          <t>40,6x61,0x3,0</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Honed&amp;Bullnosed</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Pablo Vein Cut</t>
         </is>
       </c>
       <c r="D171" t="n">
         <v>1</v>
       </c>
       <c r="E171" t="n">
-        <v>24</v>
+        <v>16.09</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>40,0x100,0x2,0</t>
+          <t>40,6x61,0x2,0</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E172" t="n">
-        <v>39.6</v>
+        <v>24.76</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>40,0x150,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Ice Grey</t>
+          <t>Picasso Grey</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E173" t="n">
-        <v>34</v>
+        <v>79.26000000000001</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>40,0x90,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Puffin Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E174" t="n">
-        <v>15.12</v>
+        <v>86.68000000000001</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>40,0x40,0x5,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Brushed&amp;Bullnosed</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E175" t="n">
-        <v>300</v>
+        <v>39.63</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>40,6x61,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Semi Polished</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E176" t="n">
-        <v>79.67</v>
+        <v>593.87</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -4534,14 +5064,17 @@
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E177" t="n">
-        <v>42.1</v>
+        <v>217.94</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -4557,43 +5090,49 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Red</t>
         </is>
       </c>
       <c r="D178" t="n">
         <v>1</v>
       </c>
       <c r="E178" t="n">
-        <v>42.1</v>
+        <v>18.33</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>40,6x61,0x3,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="D179" t="n">
         <v>1</v>
       </c>
       <c r="E179" t="n">
-        <v>16.35</v>
+        <v>42.1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>40,6x61,0x2,0</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -4603,60 +5142,69 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D180" t="n">
         <v>1</v>
       </c>
       <c r="E180" t="n">
-        <v>36.15</v>
+        <v>24.77</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>40,6x61,0x3,0</t>
+          <t>40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="D181" t="n">
         <v>1</v>
       </c>
       <c r="E181" t="n">
-        <v>15.85</v>
+        <v>28.02</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>40,6x61,0x3,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Pablo Cross Cut</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E182" t="n">
-        <v>15.85</v>
+        <v>118.38</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -4667,65 +5215,74 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E183" t="n">
-        <v>160.99</v>
+        <v>79.26000000000001</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>40,6x61,0x3,0</t>
+          <t>40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Mix Koyu</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="D184" t="n">
         <v>1</v>
       </c>
       <c r="E184" t="n">
-        <v>16.32</v>
+        <v>28.02</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Storm Noche Vein Cut</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185" t="n">
-        <v>39.63</v>
+        <v>52.74</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="186">
@@ -4736,19 +5293,22 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Golden Ink Vein Cut</t>
+          <t>Picasso Silver</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E186" t="n">
-        <v>39.63</v>
+        <v>158.52</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="187">
@@ -4759,53 +5319,59 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D187" t="n">
         <v>1</v>
       </c>
       <c r="E187" t="n">
-        <v>39.63</v>
+        <v>36.15</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>40,6x61,0x3,0</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E188" t="n">
-        <v>84.2</v>
+        <v>15.85</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>40,6x61,0x3,0</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Filled&amp;Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -4814,10 +5380,13 @@
         </is>
       </c>
       <c r="D189" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E189" t="n">
-        <v>292.23</v>
+        <v>15.85</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="190">
@@ -4828,25 +5397,28 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E190" t="n">
-        <v>24.77</v>
+        <v>79.67</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>40,6x40,6x1,2</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
@@ -4856,14 +5428,17 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E191" t="n">
-        <v>217.94</v>
+        <v>42.1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="192">
@@ -4879,7 +5454,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D192" t="n">
@@ -4888,51 +5463,60 @@
       <c r="E192" t="n">
         <v>42.1</v>
       </c>
+      <c r="F192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>40,6x61,0x3,2</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Red</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193" t="n">
-        <v>18.33</v>
+        <v>32.2</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>40,6x61,0x3,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed&amp;Bullnosed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Pablo Vein Cut</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E194" t="n">
-        <v>16.09</v>
+        <v>292.23</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -4948,60 +5532,69 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Picasso Grey</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="D195" t="n">
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>79.26000000000001</v>
+        <v>84.2</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>40,6x61,0x2,0</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Golden Ink Vein Cut</t>
         </is>
       </c>
       <c r="D196" t="n">
         <v>1</v>
       </c>
       <c r="E196" t="n">
-        <v>24.76</v>
+        <v>39.63</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>40,6x61,0x1,2</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Polished</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E197" t="n">
-        <v>52.74</v>
+        <v>39.63</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -5012,42 +5605,48 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Storm Noche Vein Cut</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="E198" t="n">
-        <v>593.87</v>
+        <v>39.63</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>40,6x61,0x3,0</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Mix Koyu</t>
         </is>
       </c>
       <c r="D199" t="n">
         <v>1</v>
       </c>
       <c r="E199" t="n">
-        <v>39.63</v>
+        <v>16.32</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="200">
@@ -5058,48 +5657,54 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Filled&amp;Semi Polished</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E200" t="n">
-        <v>86.68000000000001</v>
+        <v>160.99</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>45,7x45,7x1,2</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Picasso Silver</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E201" t="n">
-        <v>158.52</v>
+        <v>33.42</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>45,7x45,7x1,2</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -5109,43 +5714,49 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="D202" t="n">
         <v>1</v>
       </c>
       <c r="E202" t="n">
-        <v>28.02</v>
+        <v>35.5</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>40,6x61,0x1,2</t>
+          <t>45,7x45,7x1,2</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Storm Noche Kristalli</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E203" t="n">
-        <v>79.26000000000001</v>
+        <v>100.26</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>40,6x40,6x1,2</t>
+          <t>45,7x45,7x1,2</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
@@ -5155,14 +5766,17 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E204" t="n">
-        <v>28.02</v>
+        <v>71</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="205">
@@ -5178,14 +5792,17 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E205" t="n">
-        <v>71</v>
+        <v>355</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="206">
@@ -5196,19 +5813,22 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D206" t="n">
         <v>1</v>
       </c>
       <c r="E206" t="n">
-        <v>35.5</v>
+        <v>33.42</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="207">
@@ -5219,19 +5839,22 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished&amp;Bevelled</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Cappuccino Light</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>852</v>
+        <v>33.42</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -5247,14 +5870,17 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Golden Ink</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D208" t="n">
         <v>1</v>
       </c>
       <c r="E208" t="n">
-        <v>35.5</v>
+        <v>33.42</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -5270,135 +5896,153 @@
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Storm Noche Kristalli</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E209" t="n">
-        <v>100.26</v>
+        <v>167.1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>5,0x10,0x1,5</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D210" t="n">
         <v>1</v>
       </c>
       <c r="E210" t="n">
-        <v>33.42</v>
+        <v>26.98</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>5,0x5,0x</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Cappuccino Light</t>
+          <t>Royal Beige</t>
         </is>
       </c>
       <c r="D211" t="n">
         <v>1</v>
       </c>
       <c r="E211" t="n">
-        <v>33.42</v>
+        <v>13</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>5,0x10,0x</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Bianco Ibiza</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E212" t="n">
-        <v>33.42</v>
+        <v>163.26</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>5,0x20,0x1,0</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Burdur Beige</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213" t="n">
-        <v>33.42</v>
+        <v>35.72</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>45,7x45,7x1,2</t>
+          <t>5,0xFREEx2,0</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E214" t="n">
-        <v>167.1</v>
+        <v>33</v>
+      </c>
+      <c r="F214" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>5,0xFREEx2,0</t>
+          <t>5,0x10,0x2,0</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
@@ -5408,20 +6052,23 @@
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D215" t="n">
         <v>1</v>
       </c>
       <c r="E215" t="n">
-        <v>33</v>
+        <v>25.11</v>
+      </c>
+      <c r="F215" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>5,0x10,0x2,0</t>
+          <t>5,0xFREEx1,5</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
@@ -5431,20 +6078,23 @@
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E216" t="n">
-        <v>25.11</v>
+        <v>58</v>
+      </c>
+      <c r="F216" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>5,0xFREEx1,5</t>
+          <t>5,0x10,0x1,5</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -5454,112 +6104,127 @@
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Pablo</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E217" t="n">
-        <v>58</v>
+        <v>25.12</v>
+      </c>
+      <c r="F217" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>5,0x10,0x1,5</t>
+          <t>50,0x100,0x2,0</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Pablo</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218" t="n">
-        <v>25.12</v>
+        <v>50</v>
+      </c>
+      <c r="F218" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>5,0x10,0x1,5</t>
+          <t>50,0x50,0x2,0</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Tundra Grey</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E219" t="n">
-        <v>26.98</v>
+        <v>25</v>
+      </c>
+      <c r="F219" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>5,0x5,0x</t>
+          <t>60,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Royal Beige</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E220" t="n">
-        <v>13</v>
+        <v>144</v>
+      </c>
+      <c r="F220" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>5,0x10,0x</t>
+          <t>60,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Cement Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Bianco Ibiza</t>
+          <t>Classic Vein Cut</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E221" t="n">
-        <v>163.26</v>
+        <v>126</v>
+      </c>
+      <c r="F221" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>5,0x20,0x1,0</t>
+          <t>60,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -5569,43 +6234,49 @@
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E222" t="n">
-        <v>35.72</v>
+        <v>5.76</v>
+      </c>
+      <c r="F222" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>50,0x100,0x2,0</t>
+          <t>60,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t xml:space="preserve">Mina Rustic Vein Cut </t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E223" t="n">
-        <v>50</v>
+        <v>240.98</v>
+      </c>
+      <c r="F223" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>50,0x50,0x2,0</t>
+          <t>60,0x60,0x2,0</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
@@ -5615,135 +6286,153 @@
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Tundra Grey</t>
+          <t>Bianco Ibiza White</t>
         </is>
       </c>
       <c r="D224" t="n">
         <v>2</v>
       </c>
       <c r="E224" t="n">
-        <v>25</v>
+        <v>36</v>
+      </c>
+      <c r="F224" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>60,0x60,0x2,0</t>
+          <t>61,0x61,0x1,2</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Bianco Ibiza White</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E225" t="n">
-        <v>36</v>
+        <v>446.55</v>
+      </c>
+      <c r="F225" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>60,0x60,0x2,0</t>
+          <t>61,0x61,0x1,2</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Cappuccino Light</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E226" t="n">
-        <v>221.4</v>
+        <v>89.31</v>
+      </c>
+      <c r="F226" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>60,0x60,0x2,0</t>
+          <t>61,0x61,0x1,2</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D227" t="n">
         <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>5.76</v>
+        <v>25.3</v>
+      </c>
+      <c r="F227" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>60,0x60,0x2,0</t>
+          <t>61,0x61,0x1,2</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Cement Filled&amp;Brushed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Classic Vein Cut</t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E228" t="n">
-        <v>486</v>
+        <v>8.19</v>
+      </c>
+      <c r="F228" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>60,0x60,0x2,0</t>
+          <t>61,0x122.0x2,0</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mina Rustic Vein Cut </t>
+          <t>Diana Royal</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="E229" t="n">
-        <v>144</v>
+        <v>500.1</v>
+      </c>
+      <c r="F229" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>61,0x61,0x1,2</t>
+          <t>61,0x61,0x3,0</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -5753,313 +6442,355 @@
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="E230" t="n">
-        <v>446.55</v>
+        <v>619.3200000000001</v>
+      </c>
+      <c r="F230" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>61,0x61,0x1,2</t>
+          <t>61,0x61,0x3,0</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Cappuccino Light</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E231" t="n">
-        <v>89.31</v>
+        <v>7.81</v>
+      </c>
+      <c r="F231" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>61,0x61,0x1,2</t>
+          <t>7,5xFREEx1,2</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Filled&amp;Brushed</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E232" t="n">
-        <v>25.3</v>
+        <v>168</v>
+      </c>
+      <c r="F232" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>61,0x61,0x1,2</t>
+          <t>7,5x15,0x1,0</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E233" t="n">
-        <v>8.19</v>
+        <v>198</v>
+      </c>
+      <c r="F233" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>61,0x61,0x3,0</t>
+          <t>7,50x15,0x1,0</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234" t="n">
-        <v>7.81</v>
+        <v>69.75</v>
+      </c>
+      <c r="F234" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>61,0x61,0x3,0</t>
+          <t>ANTxPATx3,2</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>52</v>
+        <v>1</v>
       </c>
       <c r="E235" t="n">
-        <v>619.3200000000001</v>
+        <v>14.87</v>
+      </c>
+      <c r="F235" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>61,0x122.0x2,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="E236" t="n">
-        <v>500.1</v>
+        <v>115.98</v>
+      </c>
+      <c r="F236" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>7,5x15,0x1,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E237" t="n">
-        <v>198</v>
+        <v>194.78</v>
+      </c>
+      <c r="F237" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>7,5xFREEx1,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="E238" t="n">
-        <v>168</v>
+        <v>382.06</v>
+      </c>
+      <c r="F238" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>7,50x15,0x1,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Scabos</t>
         </is>
       </c>
       <c r="D239" t="n">
         <v>2</v>
       </c>
       <c r="E239" t="n">
-        <v>69.75</v>
+        <v>84.75</v>
+      </c>
+      <c r="F239" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>9,0x40,0x5,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Brushed&amp;Bullnosed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E240" t="n">
-        <v>876</v>
+        <v>77.31999999999999</v>
+      </c>
+      <c r="F240" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>90,0x26,0x3,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E241" t="n">
-        <v>1</v>
+        <v>115.98</v>
+      </c>
+      <c r="F241" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>ANTxPATx3,0</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E242" t="n">
-        <v>115.98</v>
+        <v>133.83</v>
+      </c>
+      <c r="F242" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>ANTxPATx3,0</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E243" t="n">
-        <v>194.78</v>
+        <v>32.7</v>
+      </c>
+      <c r="F243" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="244">
@@ -6070,19 +6801,22 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Walnut</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="E244" t="n">
-        <v>382.06</v>
+        <v>38.66</v>
+      </c>
+      <c r="F244" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -6098,14 +6832,17 @@
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E245" t="n">
-        <v>193.3</v>
+        <v>115.98</v>
+      </c>
+      <c r="F245" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="246">
@@ -6121,7 +6858,7 @@
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Volcano</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="D246" t="n">
@@ -6130,6 +6867,9 @@
       <c r="E246" t="n">
         <v>77.31999999999999</v>
       </c>
+      <c r="F246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6144,25 +6884,28 @@
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Scabos</t>
+          <t>Scott Rustic</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="E247" t="n">
-        <v>84.75</v>
+        <v>966.5</v>
+      </c>
+      <c r="F247" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>ANTxPATx3,0</t>
+          <t>ANTxPATx2,0</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -6171,33 +6914,39 @@
         </is>
       </c>
       <c r="D248" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E248" t="n">
-        <v>133.83</v>
+        <v>25.28</v>
+      </c>
+      <c r="F248" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ANTxPATx3,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Storm Noche</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="E249" t="n">
-        <v>32.7</v>
+        <v>695.88</v>
+      </c>
+      <c r="F249" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="250">
@@ -6213,37 +6962,43 @@
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E250" t="n">
-        <v>77.31999999999999</v>
+        <v>347.94</v>
+      </c>
+      <c r="F250" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>ANTxPATx3,0</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Storm Noche</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
-        <v>966.5</v>
+        <v>14.87</v>
+      </c>
+      <c r="F251" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="252">
@@ -6259,14 +7014,17 @@
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Thula Mix</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
-        <v>115.98</v>
+        <v>38.66</v>
+      </c>
+      <c r="F252" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="253">
@@ -6277,42 +7035,48 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Walnut</t>
+          <t>Ela</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="E253" t="n">
-        <v>734.54</v>
+        <v>38.66</v>
+      </c>
+      <c r="F253" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>ANTxPATx3,2</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E254" t="n">
-        <v>14.87</v>
+        <v>309.28</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -6328,7 +7092,7 @@
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Ivory Rustic</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -6337,6 +7101,9 @@
       <c r="E255" t="n">
         <v>38.66</v>
       </c>
+      <c r="F255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6346,19 +7113,22 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed&amp;Straight Edge</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E256" t="n">
-        <v>309.28</v>
+        <v>66.91</v>
+      </c>
+      <c r="F256" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="257">
@@ -6374,7 +7144,7 @@
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Ivory Rustic</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -6383,6 +7153,9 @@
       <c r="E257" t="n">
         <v>38.66</v>
       </c>
+      <c r="F257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6392,88 +7165,100 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Straight Edge</t>
+          <t>Sandblasted&amp;Brushed</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Bluestone</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E258" t="n">
-        <v>1033.41</v>
+        <v>586.59</v>
+      </c>
+      <c r="F258" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>ANTxPATx3,0</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Ela</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="D259" t="n">
         <v>1</v>
       </c>
       <c r="E259" t="n">
-        <v>38.66</v>
+        <v>16.35</v>
+      </c>
+      <c r="F259" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>ANTxPATx3,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Tumbled</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Storm Noche</t>
+          <t>Volcano</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E260" t="n">
-        <v>14.87</v>
+        <v>54.27</v>
+      </c>
+      <c r="F260" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ANTxPATx2,0</t>
+          <t>ANTxPATx1,2</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Rustic</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E261" t="n">
-        <v>25.28</v>
+        <v>203.7</v>
+      </c>
+      <c r="F261" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -6484,19 +7269,22 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Storm Noche</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E262" t="n">
-        <v>695.88</v>
+        <v>401.4</v>
+      </c>
+      <c r="F262" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="263">
@@ -6507,48 +7295,54 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Bluestone</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E263" t="n">
-        <v>347.94</v>
+        <v>223.04</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>basketwievxbasketx1,2</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Sandblasted&amp;Brushed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Bianco Ibiza  Mosaic 225</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="E264" t="n">
-        <v>586.59</v>
+        <v>10.23</v>
+      </c>
+      <c r="F264" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>MinixPATx1,2</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -6558,221 +7352,251 @@
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Thula Mix</t>
+          <t>Picasso Ivory</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E265" t="n">
-        <v>38.66</v>
+        <v>77.76000000000001</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>SLABxSLABx2,0</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Volcano</t>
+          <t>Classic Light</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
-        <v>54.27</v>
+        <v>48</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>VARxVARx1,2</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Herringbone&amp;Polished&amp;Mesh</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Silver Rustic</t>
+          <t>Solto Dark White</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E267" t="n">
-        <v>203.7</v>
+        <v>349.25</v>
+      </c>
+      <c r="F267" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ANTxPATx3,0</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Fan</t>
         </is>
       </c>
       <c r="D268" t="n">
         <v>1</v>
       </c>
       <c r="E268" t="n">
-        <v>16.35</v>
+        <v>9</v>
+      </c>
+      <c r="F268" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Cooker</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E269" t="n">
-        <v>401.4</v>
+        <v>9</v>
+      </c>
+      <c r="F269" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>ANTxPATx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Bluestone</t>
+          <t>Oven</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E270" t="n">
-        <v>223.04</v>
+        <v>9</v>
+      </c>
+      <c r="F270" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>basketwievxbasketx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Bianco Ibiza  Mosaic 225</t>
+          <t>Microvawe Oven</t>
         </is>
       </c>
       <c r="D271" t="n">
         <v>1</v>
       </c>
       <c r="E271" t="n">
-        <v>10.23</v>
+        <v>9</v>
+      </c>
+      <c r="F271" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>FRxPATx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Brushed&amp;Chiseled</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Diana Royal</t>
+          <t>Refrigerator</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E272" t="n">
-        <v>618.5599999999999</v>
+        <v>9</v>
+      </c>
+      <c r="F272" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>MinixPATx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Picasso Ivory</t>
+          <t>Sink&amp;Faucet</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E273" t="n">
-        <v>77.76000000000001</v>
+        <v>9</v>
+      </c>
+      <c r="F273" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>SLABxSLABx2,0</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Classic Light</t>
+          <t>Burdur Beige</t>
         </is>
       </c>
       <c r="D274" t="n">
         <v>1</v>
       </c>
       <c r="E274" t="n">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="F274" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -6792,33 +7616,39 @@
         </is>
       </c>
       <c r="D275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E275" t="n">
-        <v>88</v>
+        <v>0</v>
+      </c>
+      <c r="F275" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>VARxVARx1,2</t>
+          <t>VARxVARxVAR</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Herringbone&amp;Polished&amp;Mesh</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Solto Dark White</t>
+          <t>Burdur Beige</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E276" t="n">
-        <v>349.25</v>
+        <v>0</v>
+      </c>
+      <c r="F276" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="277">
@@ -6829,12 +7659,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>VH44</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Elkay Maximax</t>
         </is>
       </c>
       <c r="D277" t="n">
@@ -6842,6 +7672,9 @@
       </c>
       <c r="E277" t="n">
         <v>1</v>
+      </c>
+      <c r="F277" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="278">
@@ -6852,18 +7685,21 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E278" t="n">
+        <v>159.58</v>
+      </c>
+      <c r="F278" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6875,18 +7711,21 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Blanco Esi</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E279" t="n">
+        <v>136.8</v>
+      </c>
+      <c r="F279" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6898,364 +7737,48 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>VH44</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Elkay Maximax</t>
+          <t>Burdur Beige</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E280" t="n">
-        <v>1</v>
+        <v>88</v>
+      </c>
+      <c r="F280" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>VARxVARxVAR</t>
+          <t>VariousxVariousx3,0</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Various</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E281" t="n">
-        <v>159.58</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>VARxVARxVAR</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>Blanco Esi</t>
-        </is>
-      </c>
-      <c r="D282" t="n">
-        <v>6</v>
-      </c>
-      <c r="E282" t="n">
-        <v>136.8</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>VARxVARx6,0</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;2 Long Sides Bevelled</t>
-        </is>
-      </c>
-      <c r="C283" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="D283" t="n">
-        <v>1</v>
-      </c>
-      <c r="E283" t="n">
-        <v>35.64</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>VARxVARx6,0</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
-        </is>
-      </c>
-      <c r="C284" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="D284" t="n">
-        <v>1</v>
-      </c>
-      <c r="E284" t="n">
-        <v>32.66</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>VARxVARx3,0</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
-        </is>
-      </c>
-      <c r="C285" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="D285" t="n">
-        <v>1</v>
-      </c>
-      <c r="E285" t="n">
-        <v>7.57</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>VARxVARx22.5</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;1,2m Side Bevelled</t>
-        </is>
-      </c>
-      <c r="C286" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="D286" t="n">
-        <v>1</v>
-      </c>
-      <c r="E286" t="n">
-        <v>3.6</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>VARxVARx2,0</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;1 Long Side Bevelled</t>
-        </is>
-      </c>
-      <c r="C287" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="D287" t="n">
-        <v>1</v>
-      </c>
-      <c r="E287" t="n">
-        <v>10.45</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>VARxVARx3,0</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Front Side Bullnose</t>
-        </is>
-      </c>
-      <c r="C288" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="D288" t="n">
-        <v>1</v>
-      </c>
-      <c r="E288" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>VARxVARxVAR</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="C289" t="inlineStr">
-        <is>
-          <t>Fan</t>
-        </is>
-      </c>
-      <c r="D289" t="n">
-        <v>1</v>
-      </c>
-      <c r="E289" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>VARxVARxVAR</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="C290" t="inlineStr">
-        <is>
-          <t>Cooker</t>
-        </is>
-      </c>
-      <c r="D290" t="n">
-        <v>1</v>
-      </c>
-      <c r="E290" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>VARxVARxVAR</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="C291" t="inlineStr">
-        <is>
-          <t>Oven</t>
-        </is>
-      </c>
-      <c r="D291" t="n">
-        <v>1</v>
-      </c>
-      <c r="E291" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>VARxVARxVAR</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="C292" t="inlineStr">
-        <is>
-          <t>Microvawe Oven</t>
-        </is>
-      </c>
-      <c r="D292" t="n">
-        <v>1</v>
-      </c>
-      <c r="E292" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>VARxVARxVAR</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="C293" t="inlineStr">
-        <is>
-          <t>Refrigerator</t>
-        </is>
-      </c>
-      <c r="D293" t="n">
-        <v>1</v>
-      </c>
-      <c r="E293" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>VARxVARxVAR</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="C294" t="inlineStr">
-        <is>
-          <t>Sink&amp;Faucet</t>
-        </is>
-      </c>
-      <c r="D294" t="n">
-        <v>1</v>
-      </c>
-      <c r="E294" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>VariousxVariousx3,0</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>Filled&amp;Honed</t>
-        </is>
-      </c>
-      <c r="C295" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="D295" t="n">
-        <v>1</v>
-      </c>
-      <c r="E295" t="n">
         <v>14.03</v>
+      </c>
+      <c r="F281" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
